--- a/target/test-classes/slm.xlsx
+++ b/target/test-classes/slm.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aydin\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C1F7B-F1D2-4302-9ABC-512DDC712129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F4BC4-99F8-402F-AE57-18A9A3FC6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mrb" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa1" sheetId="2" r:id="rId2"/>
+    <sheet name="newUser" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa2" sheetId="3" r:id="rId3"/>
     <sheet name="Sayfa3" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>country</t>
   </si>
@@ -90,20 +90,32 @@
     <t>folk</t>
   </si>
   <si>
-    <t>jjjjj</t>
-  </si>
-  <si>
     <t>lllllll</t>
   </si>
   <si>
     <t>iiii</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>FriendlyBoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +131,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +451,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -478,7 +499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -492,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -514,19 +535,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99A1C48-FFEB-466B-A974-BB641198F0AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -538,11 +593,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -554,13 +609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DAF9FA-FBD2-42E7-BA7C-6B5C75F322F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/slm.xlsx
+++ b/target/test-classes/slm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aydin\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F4BC4-99F8-402F-AE57-18A9A3FC6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78238F-BA4B-423F-9702-F089AFA35367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>country</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>FriendlyBoy</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99A1C48-FFEB-466B-A974-BB641198F0AD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,36 +550,48 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>123</v>
+      </c>
+      <c r="C4">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
